--- a/po_analysis_by_asin/B0BRR2R8HH_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR2R8HH_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -757,7 +758,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -855,6 +856,649 @@
       </c>
       <c r="B13" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>372</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-49.28327310116363</v>
+      </c>
+      <c r="D2" t="n">
+        <v>803.4689827607911</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>370</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-66.29377405087661</v>
+      </c>
+      <c r="D3" t="n">
+        <v>775.3732042386588</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>370</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-18.83523889376012</v>
+      </c>
+      <c r="D4" t="n">
+        <v>793.4786988983267</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>369</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-40.80196052605308</v>
+      </c>
+      <c r="D5" t="n">
+        <v>775.4175204148776</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>368</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-49.54292118554232</v>
+      </c>
+      <c r="D6" t="n">
+        <v>784.9454132041545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>367</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-63.99025990301941</v>
+      </c>
+      <c r="D7" t="n">
+        <v>809.3222995335424</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>366</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-45.96259024279725</v>
+      </c>
+      <c r="D8" t="n">
+        <v>813.8646474826504</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>366</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-69.41693945209639</v>
+      </c>
+      <c r="D9" t="n">
+        <v>803.337761901187</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>365</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-89.70382926363234</v>
+      </c>
+      <c r="D10" t="n">
+        <v>790.8833530080531</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>364</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-41.77490134845603</v>
+      </c>
+      <c r="D11" t="n">
+        <v>818.8325396844431</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>363</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-61.99391541838816</v>
+      </c>
+      <c r="D12" t="n">
+        <v>828.3197681437174</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>362</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-63.62680806805385</v>
+      </c>
+      <c r="D13" t="n">
+        <v>784.1748515257112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>362</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-81.87519452472546</v>
+      </c>
+      <c r="D14" t="n">
+        <v>779.0936007877099</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>361</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-95.10811145857708</v>
+      </c>
+      <c r="D15" t="n">
+        <v>815.9541705455116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>360</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-89.99628904999798</v>
+      </c>
+      <c r="D16" t="n">
+        <v>803.0218915788092</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>360</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-63.03550595115458</v>
+      </c>
+      <c r="D17" t="n">
+        <v>774.2627836626557</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>359</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-57.08280788760021</v>
+      </c>
+      <c r="D18" t="n">
+        <v>772.5058194512103</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>357</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-66.64003373025326</v>
+      </c>
+      <c r="D19" t="n">
+        <v>791.076780474943</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>356</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-48.57876230657574</v>
+      </c>
+      <c r="D20" t="n">
+        <v>790.9541978938456</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>356</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-56.24427013985552</v>
+      </c>
+      <c r="D21" t="n">
+        <v>789.7625195017197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>355</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-85.76636909598187</v>
+      </c>
+      <c r="D22" t="n">
+        <v>768.8440446027367</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>354</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-37.76706702975973</v>
+      </c>
+      <c r="D23" t="n">
+        <v>779.1637617217563</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>354</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-99.80808227213178</v>
+      </c>
+      <c r="D24" t="n">
+        <v>786.1226521599049</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>352</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-80.46393941229671</v>
+      </c>
+      <c r="D25" t="n">
+        <v>746.1650425446225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>351</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-118.4009149983323</v>
+      </c>
+      <c r="D26" t="n">
+        <v>756.3766545797306</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>350</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-76.70655884248671</v>
+      </c>
+      <c r="D27" t="n">
+        <v>799.3855876758655</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>349</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-93.02327095307363</v>
+      </c>
+      <c r="D28" t="n">
+        <v>804.4150185276862</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>348</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-86.87936452392917</v>
+      </c>
+      <c r="D29" t="n">
+        <v>763.7854283737655</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>346</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-65.76154201083027</v>
+      </c>
+      <c r="D30" t="n">
+        <v>748.6515665002999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>346</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-93.41129202096892</v>
+      </c>
+      <c r="D31" t="n">
+        <v>768.7327165844805</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>345</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-74.85068000593388</v>
+      </c>
+      <c r="D32" t="n">
+        <v>772.9313476937065</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>344</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-96.34522911170122</v>
+      </c>
+      <c r="D33" t="n">
+        <v>737.7251094852397</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>342</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-105.3044816186108</v>
+      </c>
+      <c r="D34" t="n">
+        <v>768.880069681418</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>342</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-105.1883436036128</v>
+      </c>
+      <c r="D35" t="n">
+        <v>767.5164960853266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>341</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-119.8253339643153</v>
+      </c>
+      <c r="D36" t="n">
+        <v>781.8532065897887</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>340</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-68.84778899056369</v>
+      </c>
+      <c r="D37" t="n">
+        <v>760.5425325396753</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>340</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-60.89402411862953</v>
+      </c>
+      <c r="D38" t="n">
+        <v>793.7829425302526</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>339</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-104.1655642952657</v>
+      </c>
+      <c r="D39" t="n">
+        <v>754.8207087026608</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>338</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-99.7627913954674</v>
+      </c>
+      <c r="D40" t="n">
+        <v>772.8411506026246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>338</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-105.8526210532139</v>
+      </c>
+      <c r="D41" t="n">
+        <v>779.1541201683082</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>337</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-89.48063027470128</v>
+      </c>
+      <c r="D42" t="n">
+        <v>772.9916875200684</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>336</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-89.5799676489892</v>
+      </c>
+      <c r="D43" t="n">
+        <v>787.8907207842042</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>336</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-95.21985688630859</v>
+      </c>
+      <c r="D44" t="n">
+        <v>755.0327674350531</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BRR2R8HH_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR2R8HH_po_data.xlsx
@@ -869,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,16 +888,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -906,12 +896,6 @@
       <c r="B2" t="n">
         <v>372</v>
       </c>
-      <c r="C2" t="n">
-        <v>-49.28327310116363</v>
-      </c>
-      <c r="D2" t="n">
-        <v>803.4689827607911</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -920,12 +904,6 @@
       <c r="B3" t="n">
         <v>370</v>
       </c>
-      <c r="C3" t="n">
-        <v>-66.29377405087661</v>
-      </c>
-      <c r="D3" t="n">
-        <v>775.3732042386588</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -934,12 +912,6 @@
       <c r="B4" t="n">
         <v>370</v>
       </c>
-      <c r="C4" t="n">
-        <v>-18.83523889376012</v>
-      </c>
-      <c r="D4" t="n">
-        <v>793.4786988983267</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -948,12 +920,6 @@
       <c r="B5" t="n">
         <v>369</v>
       </c>
-      <c r="C5" t="n">
-        <v>-40.80196052605308</v>
-      </c>
-      <c r="D5" t="n">
-        <v>775.4175204148776</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -962,12 +928,6 @@
       <c r="B6" t="n">
         <v>368</v>
       </c>
-      <c r="C6" t="n">
-        <v>-49.54292118554232</v>
-      </c>
-      <c r="D6" t="n">
-        <v>784.9454132041545</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -976,12 +936,6 @@
       <c r="B7" t="n">
         <v>367</v>
       </c>
-      <c r="C7" t="n">
-        <v>-63.99025990301941</v>
-      </c>
-      <c r="D7" t="n">
-        <v>809.3222995335424</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -990,12 +944,6 @@
       <c r="B8" t="n">
         <v>366</v>
       </c>
-      <c r="C8" t="n">
-        <v>-45.96259024279725</v>
-      </c>
-      <c r="D8" t="n">
-        <v>813.8646474826504</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1004,12 +952,6 @@
       <c r="B9" t="n">
         <v>366</v>
       </c>
-      <c r="C9" t="n">
-        <v>-69.41693945209639</v>
-      </c>
-      <c r="D9" t="n">
-        <v>803.337761901187</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1018,12 +960,6 @@
       <c r="B10" t="n">
         <v>365</v>
       </c>
-      <c r="C10" t="n">
-        <v>-89.70382926363234</v>
-      </c>
-      <c r="D10" t="n">
-        <v>790.8833530080531</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1032,12 +968,6 @@
       <c r="B11" t="n">
         <v>364</v>
       </c>
-      <c r="C11" t="n">
-        <v>-41.77490134845603</v>
-      </c>
-      <c r="D11" t="n">
-        <v>818.8325396844431</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1046,12 +976,6 @@
       <c r="B12" t="n">
         <v>363</v>
       </c>
-      <c r="C12" t="n">
-        <v>-61.99391541838816</v>
-      </c>
-      <c r="D12" t="n">
-        <v>828.3197681437174</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1060,12 +984,6 @@
       <c r="B13" t="n">
         <v>362</v>
       </c>
-      <c r="C13" t="n">
-        <v>-63.62680806805385</v>
-      </c>
-      <c r="D13" t="n">
-        <v>784.1748515257112</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1074,12 +992,6 @@
       <c r="B14" t="n">
         <v>362</v>
       </c>
-      <c r="C14" t="n">
-        <v>-81.87519452472546</v>
-      </c>
-      <c r="D14" t="n">
-        <v>779.0936007877099</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1088,12 +1000,6 @@
       <c r="B15" t="n">
         <v>361</v>
       </c>
-      <c r="C15" t="n">
-        <v>-95.10811145857708</v>
-      </c>
-      <c r="D15" t="n">
-        <v>815.9541705455116</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1102,12 +1008,6 @@
       <c r="B16" t="n">
         <v>360</v>
       </c>
-      <c r="C16" t="n">
-        <v>-89.99628904999798</v>
-      </c>
-      <c r="D16" t="n">
-        <v>803.0218915788092</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1116,12 +1016,6 @@
       <c r="B17" t="n">
         <v>360</v>
       </c>
-      <c r="C17" t="n">
-        <v>-63.03550595115458</v>
-      </c>
-      <c r="D17" t="n">
-        <v>774.2627836626557</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1130,12 +1024,6 @@
       <c r="B18" t="n">
         <v>359</v>
       </c>
-      <c r="C18" t="n">
-        <v>-57.08280788760021</v>
-      </c>
-      <c r="D18" t="n">
-        <v>772.5058194512103</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1144,12 +1032,6 @@
       <c r="B19" t="n">
         <v>357</v>
       </c>
-      <c r="C19" t="n">
-        <v>-66.64003373025326</v>
-      </c>
-      <c r="D19" t="n">
-        <v>791.076780474943</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1158,12 +1040,6 @@
       <c r="B20" t="n">
         <v>356</v>
       </c>
-      <c r="C20" t="n">
-        <v>-48.57876230657574</v>
-      </c>
-      <c r="D20" t="n">
-        <v>790.9541978938456</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1172,12 +1048,6 @@
       <c r="B21" t="n">
         <v>356</v>
       </c>
-      <c r="C21" t="n">
-        <v>-56.24427013985552</v>
-      </c>
-      <c r="D21" t="n">
-        <v>789.7625195017197</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1186,12 +1056,6 @@
       <c r="B22" t="n">
         <v>355</v>
       </c>
-      <c r="C22" t="n">
-        <v>-85.76636909598187</v>
-      </c>
-      <c r="D22" t="n">
-        <v>768.8440446027367</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1200,12 +1064,6 @@
       <c r="B23" t="n">
         <v>354</v>
       </c>
-      <c r="C23" t="n">
-        <v>-37.76706702975973</v>
-      </c>
-      <c r="D23" t="n">
-        <v>779.1637617217563</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1214,12 +1072,6 @@
       <c r="B24" t="n">
         <v>354</v>
       </c>
-      <c r="C24" t="n">
-        <v>-99.80808227213178</v>
-      </c>
-      <c r="D24" t="n">
-        <v>786.1226521599049</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1228,12 +1080,6 @@
       <c r="B25" t="n">
         <v>352</v>
       </c>
-      <c r="C25" t="n">
-        <v>-80.46393941229671</v>
-      </c>
-      <c r="D25" t="n">
-        <v>746.1650425446225</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1242,12 +1088,6 @@
       <c r="B26" t="n">
         <v>351</v>
       </c>
-      <c r="C26" t="n">
-        <v>-118.4009149983323</v>
-      </c>
-      <c r="D26" t="n">
-        <v>756.3766545797306</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1256,12 +1096,6 @@
       <c r="B27" t="n">
         <v>350</v>
       </c>
-      <c r="C27" t="n">
-        <v>-76.70655884248671</v>
-      </c>
-      <c r="D27" t="n">
-        <v>799.3855876758655</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1270,12 +1104,6 @@
       <c r="B28" t="n">
         <v>349</v>
       </c>
-      <c r="C28" t="n">
-        <v>-93.02327095307363</v>
-      </c>
-      <c r="D28" t="n">
-        <v>804.4150185276862</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1284,12 +1112,6 @@
       <c r="B29" t="n">
         <v>348</v>
       </c>
-      <c r="C29" t="n">
-        <v>-86.87936452392917</v>
-      </c>
-      <c r="D29" t="n">
-        <v>763.7854283737655</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1298,12 +1120,6 @@
       <c r="B30" t="n">
         <v>346</v>
       </c>
-      <c r="C30" t="n">
-        <v>-65.76154201083027</v>
-      </c>
-      <c r="D30" t="n">
-        <v>748.6515665002999</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1312,12 +1128,6 @@
       <c r="B31" t="n">
         <v>346</v>
       </c>
-      <c r="C31" t="n">
-        <v>-93.41129202096892</v>
-      </c>
-      <c r="D31" t="n">
-        <v>768.7327165844805</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1326,12 +1136,6 @@
       <c r="B32" t="n">
         <v>345</v>
       </c>
-      <c r="C32" t="n">
-        <v>-74.85068000593388</v>
-      </c>
-      <c r="D32" t="n">
-        <v>772.9313476937065</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1340,12 +1144,6 @@
       <c r="B33" t="n">
         <v>344</v>
       </c>
-      <c r="C33" t="n">
-        <v>-96.34522911170122</v>
-      </c>
-      <c r="D33" t="n">
-        <v>737.7251094852397</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1354,12 +1152,6 @@
       <c r="B34" t="n">
         <v>342</v>
       </c>
-      <c r="C34" t="n">
-        <v>-105.3044816186108</v>
-      </c>
-      <c r="D34" t="n">
-        <v>768.880069681418</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1368,12 +1160,6 @@
       <c r="B35" t="n">
         <v>342</v>
       </c>
-      <c r="C35" t="n">
-        <v>-105.1883436036128</v>
-      </c>
-      <c r="D35" t="n">
-        <v>767.5164960853266</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1382,12 +1168,6 @@
       <c r="B36" t="n">
         <v>341</v>
       </c>
-      <c r="C36" t="n">
-        <v>-119.8253339643153</v>
-      </c>
-      <c r="D36" t="n">
-        <v>781.8532065897887</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1396,12 +1176,6 @@
       <c r="B37" t="n">
         <v>340</v>
       </c>
-      <c r="C37" t="n">
-        <v>-68.84778899056369</v>
-      </c>
-      <c r="D37" t="n">
-        <v>760.5425325396753</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1410,12 +1184,6 @@
       <c r="B38" t="n">
         <v>340</v>
       </c>
-      <c r="C38" t="n">
-        <v>-60.89402411862953</v>
-      </c>
-      <c r="D38" t="n">
-        <v>793.7829425302526</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1424,12 +1192,6 @@
       <c r="B39" t="n">
         <v>339</v>
       </c>
-      <c r="C39" t="n">
-        <v>-104.1655642952657</v>
-      </c>
-      <c r="D39" t="n">
-        <v>754.8207087026608</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1438,12 +1200,6 @@
       <c r="B40" t="n">
         <v>338</v>
       </c>
-      <c r="C40" t="n">
-        <v>-99.7627913954674</v>
-      </c>
-      <c r="D40" t="n">
-        <v>772.8411506026246</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1452,12 +1208,6 @@
       <c r="B41" t="n">
         <v>338</v>
       </c>
-      <c r="C41" t="n">
-        <v>-105.8526210532139</v>
-      </c>
-      <c r="D41" t="n">
-        <v>779.1541201683082</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1466,12 +1216,6 @@
       <c r="B42" t="n">
         <v>337</v>
       </c>
-      <c r="C42" t="n">
-        <v>-89.48063027470128</v>
-      </c>
-      <c r="D42" t="n">
-        <v>772.9916875200684</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1480,12 +1224,6 @@
       <c r="B43" t="n">
         <v>336</v>
       </c>
-      <c r="C43" t="n">
-        <v>-89.5799676489892</v>
-      </c>
-      <c r="D43" t="n">
-        <v>787.8907207842042</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1493,12 +1231,6 @@
       </c>
       <c r="B44" t="n">
         <v>336</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-95.21985688630859</v>
-      </c>
-      <c r="D44" t="n">
-        <v>755.0327674350531</v>
       </c>
     </row>
   </sheetData>
